--- a/biology/Écologie/Macro-organisme/Macro-organisme.xlsx
+++ b/biology/Écologie/Macro-organisme/Macro-organisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un macro-organisme, écrit aussi macroorganisme, est un organisme vivant, visible à l'œil nu, qui peut être observé sans l'aide d'un microscope, ce qui le distingue du micro-organisme.
-Un macro-organisme est aussi appelé macrobe, néologisme utilisé par les biologistes pour combler le vide conceptuel existant pour désigner les macro-organismes, là où le terme microbe est utilisé pour désigner les micro-organismes[1].
+Un macro-organisme est aussi appelé macrobe, néologisme utilisé par les biologistes pour combler le vide conceptuel existant pour désigner les macro-organismes, là où le terme microbe est utilisé pour désigner les micro-organismes.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Lutte contre les ravageurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cadre de la lutte biologique des cultures, les macro-organismes correspondent aux arthropodes pouvant être utilisés pour lutter contre les nuisibles du sol (exemple : micro-organismes comme les bactéries et les champignons, nématodes, larves de moucherons du terreau, etc.) et ceux des plantes (exemple : pucerons, cochenille, araignées rouges, etc.). Les macro-organismes sont donc une solution alternative aux pesticides.
-La vente et l'utilisation de macro-organismes dépendent, au niveau européen, de la règlementation sur les pesticides[2].
-Un macro-organisme est défini comme « tout organisme autre qu’un micro-organisme tel que défini à l’article 3 du règlement (CE) no 1107/2009 du Parlement européen et du Conseil du 21 octobre 2009 concernant la mise sur le marché des produits phytopharmaceutiques et abrogeant les directives 79/117/CEE et 91/414/CEE du Conseil »[3].
+La vente et l'utilisation de macro-organismes dépendent, au niveau européen, de la règlementation sur les pesticides.
+Un macro-organisme est défini comme « tout organisme autre qu’un micro-organisme tel que défini à l’article 3 du règlement (CE) no 1107/2009 du Parlement européen et du Conseil du 21 octobre 2009 concernant la mise sur le marché des produits phytopharmaceutiques et abrogeant les directives 79/117/CEE et 91/414/CEE du Conseil ».
 Un micro-organisme est défini, au sens du règlement (CE) no 1107/2009 du Parlement européen, comme « toute entité microbiologique, y compris les champignons inférieurs et les virus, cellulaire ou non, capable de se répliquer ou de transférer du matériel génétique ».
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Exemples de relation macro-organismes - nuisible</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les collemboles s'attaquent aux bactéries, champignons et algues qui peuvent pousser dans le sol.
 Les acariens prédateurs du sol peuvent s'attaquer aux nématodes, vers blancs et moucherons du terreau.
